--- a/数据整理/stocks/A股/科创板/688722-同益中.xlsx
+++ b/数据整理/stocks/A股/科创板/688722-同益中.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -733,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,17 +745,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -764,13 +785,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688722-同益中.xlsx
+++ b/数据整理/stocks/A股/科创板/688722-同益中.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,279 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013757</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信均衡价值混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>59.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013758</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信均衡价值混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>59.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002584</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富安达长盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519951</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008071</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007863</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -980,64 +766,278 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688722-同益中.xlsx
+++ b/数据整理/stocks/A股/科创板/688722-同益中.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -581,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3394</t>
+          <t>0.3727</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -619,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.96</t>
+          <t>74.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0949</t>
+          <t>0.0725</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -657,26 +674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>66.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.0406</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -695,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.96</t>
+          <t>74.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -733,26 +750,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>66.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -761,6 +778,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688722-同益中.xlsx
+++ b/数据整理/stocks/A股/科创板/688722-同益中.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,22 +615,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>79.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3727</t>
+          <t>0.3892</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011273</t>
+          <t>013757</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合A</t>
+          <t>泰信均衡价值混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>79.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0725</t>
+          <t>0.0569</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013757</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信均衡价值混合A</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>66.30</t>
+          <t>88.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0406</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -702,74 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011274</t>
+          <t>013758</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合C</t>
+          <t>泰信均衡价值混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>79.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013758</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰信均衡价值混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>66.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -844,26 +823,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3394</t>
+          <t>0.3727</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -882,26 +861,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.96</t>
+          <t>74.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0949</t>
+          <t>0.0725</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -920,26 +899,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>66.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.0406</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +937,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.96</t>
+          <t>74.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -996,26 +975,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>66.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1024,6 +1003,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
